--- a/spliced/falling/2023-03-21_15-37-22/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-37-22/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.024892758578062</v>
+        <v>0.0030543261673301</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007941247895359899</v>
+        <v>-0.0183259565383195</v>
       </c>
       <c r="C2" t="n">
-        <v>0.039248090237379</v>
+        <v>-0.0439822971820831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0134390350431203</v>
+        <v>-0.024892758578062</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0357356183230876</v>
+        <v>0.007941247895359899</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0925460830330848</v>
+        <v>0.039248090237379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.2785545587539673</v>
+        <v>0.0134390350431203</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0339030213654041</v>
+        <v>0.0357356183230876</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0149661982432007</v>
+        <v>0.0925460830330848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.2206750661134719</v>
+        <v>-0.2785545587539673</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6401867866516113</v>
+        <v>-0.0339030213654041</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2525927722454071</v>
+        <v>0.0149661982432007</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9094256162643432</v>
+        <v>-0.2206750661134719</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5726861953735352</v>
+        <v>0.6401867866516113</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6157521605491638</v>
+        <v>0.2525927722454071</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3003929853439331</v>
+        <v>0.9094256162643432</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3223841190338135</v>
+        <v>-0.5726861953735352</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0675006061792373</v>
+        <v>0.6157521605491638</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.40943244099617</v>
+        <v>0.3003929853439331</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7831292152404785</v>
+        <v>-0.3223841190338135</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2806925773620605</v>
+        <v>-0.0675006061792373</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.4190535545349121</v>
+        <v>0.40943244099617</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.07376197725534429</v>
+        <v>0.7831292152404785</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.578767538070679</v>
+        <v>-0.2806925773620605</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.760499954223633</v>
+        <v>-0.4190535545349121</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.066987991333008</v>
+        <v>-0.07376197725534429</v>
       </c>
       <c r="C10" t="n">
-        <v>1.048855662345886</v>
+        <v>-2.578767538070679</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5668829679489136</v>
+        <v>2.760499954223633</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.699732542037964</v>
+        <v>-4.066987991333008</v>
       </c>
       <c r="C11" t="n">
-        <v>1.101084589958191</v>
+        <v>1.048855662345886</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.7536550164222717</v>
+        <v>0.5668829679489136</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.4547891616821289</v>
+        <v>-1.699732542037964</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0024434609804302</v>
+        <v>1.101084589958191</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.0832303911447525</v>
+        <v>-0.7536550164222717</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0516181141138076</v>
+        <v>-0.4547891616821289</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2286163121461868</v>
+        <v>0.0024434609804302</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.06688974797725671</v>
+        <v>-0.0832303911447525</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5899431109428406</v>
+        <v>-0.0516181141138076</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3481931984424591</v>
+        <v>-0.2286163121461868</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.7376197576522827</v>
+        <v>0.06688974797725671</v>
       </c>
       <c r="B15" t="n">
-        <v>1.138958215713501</v>
+        <v>0.5899431109428406</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1828014254570007</v>
+        <v>-0.3481931984424591</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.0334312915802</v>
+        <v>-0.7376197576522827</v>
       </c>
       <c r="B16" t="n">
-        <v>1.02701723575592</v>
+        <v>1.138958215713501</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1038470938801765</v>
+        <v>-0.1828014254570007</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1331686228513717</v>
+        <v>-1.0334312915802</v>
       </c>
       <c r="B17" t="n">
-        <v>2.704300403594971</v>
+        <v>1.02701723575592</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.112385630607605</v>
+        <v>0.1038470938801765</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.6466008424758911</v>
+        <v>-0.1331686228513717</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0087048299610614</v>
+        <v>2.704300403594971</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.5677992701530457</v>
+        <v>-1.112385630607605</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.914909839630127</v>
+        <v>-0.6466008424758911</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.065807104110718</v>
+        <v>-0.0087048299610614</v>
       </c>
       <c r="C19" t="n">
-        <v>2.838385343551636</v>
+        <v>-0.5677992701530457</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1142318025231361</v>
+        <v>-1.914909839630127</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.2412917762994766</v>
+        <v>-1.065807104110718</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7263187766075134</v>
+        <v>2.838385343551636</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.4198171496391296</v>
+        <v>0.1142318025231361</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1876883506774902</v>
+        <v>-0.2412917762994766</v>
       </c>
       <c r="C21" t="n">
-        <v>0.732122004032135</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.0713185146450996</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.2884811162948608</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1009454801678657</v>
+        <v>0.7263187766075134</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-37-22/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-37-22/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0030543261673301</v>
+        <v>-0.0641408488154411</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0183259565383195</v>
+        <v>0.0114537235349416</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0439822971820831</v>
+        <v>-0.641255795955658</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.024892758578062</v>
+        <v>-0.0258090570569038</v>
       </c>
       <c r="B3" t="n">
-        <v>0.007941247895359899</v>
+        <v>-0.0752891451120376</v>
       </c>
       <c r="C3" t="n">
-        <v>0.039248090237379</v>
+        <v>-0.038026362657547</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0134390350431203</v>
+        <v>-0.2993239760398865</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0357356183230876</v>
+        <v>0.2926044464111328</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0925460830330848</v>
+        <v>0.0584903471171855</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.2785545587539673</v>
+        <v>-0.08659014850854869</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0339030213654041</v>
+        <v>-0.0867428630590438</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0149661982432007</v>
+        <v>0.1705841124057769</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.2206750661134719</v>
+        <v>0.1209513172507286</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6401867866516113</v>
+        <v>-0.2257147133350372</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2525927722454071</v>
+        <v>-0.1018617823719978</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9094256162643432</v>
+        <v>-0.070249505341053</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5726861953735352</v>
+        <v>-0.1577559560537338</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6157521605491638</v>
+        <v>0.0288633834570646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3003929853439331</v>
+        <v>0.0030543261673301</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3223841190338135</v>
+        <v>-0.0183259565383195</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0675006061792373</v>
+        <v>-0.0439822971820831</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.40943244099617</v>
+        <v>-0.024892758578062</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7831292152404785</v>
+        <v>0.007941247895359899</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2806925773620605</v>
+        <v>0.039248090237379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.4190535545349121</v>
+        <v>0.0134390350431203</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.07376197725534429</v>
+        <v>0.0357356183230876</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.578767538070679</v>
+        <v>0.0925460830330848</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.760499954223633</v>
+        <v>-0.2785545587539673</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.066987991333008</v>
+        <v>-0.0339030213654041</v>
       </c>
       <c r="C11" t="n">
-        <v>1.048855662345886</v>
+        <v>0.0149661982432007</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5668829679489136</v>
+        <v>-0.2206750661134719</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.699732542037964</v>
+        <v>0.6401867866516113</v>
       </c>
       <c r="C12" t="n">
-        <v>1.101084589958191</v>
+        <v>0.2525927722454071</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.7536550164222717</v>
+        <v>0.9094256162643432</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.4547891616821289</v>
+        <v>-0.5726861953735352</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0024434609804302</v>
+        <v>0.6157521605491638</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.0832303911447525</v>
+        <v>0.3003929853439331</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0516181141138076</v>
+        <v>-0.3223841190338135</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2286163121461868</v>
+        <v>-0.0675006061792373</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.06688974797725671</v>
+        <v>0.40943244099617</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5899431109428406</v>
+        <v>0.7831292152404785</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3481931984424591</v>
+        <v>-0.2806925773620605</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.7376197576522827</v>
+        <v>-0.4190535545349121</v>
       </c>
       <c r="B16" t="n">
-        <v>1.138958215713501</v>
+        <v>-0.07376197725534429</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1828014254570007</v>
+        <v>-2.578767538070679</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.0334312915802</v>
+        <v>2.760499954223633</v>
       </c>
       <c r="B17" t="n">
-        <v>1.02701723575592</v>
+        <v>-4.066987991333008</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1038470938801765</v>
+        <v>1.048855662345886</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1331686228513717</v>
+        <v>0.5668829679489136</v>
       </c>
       <c r="B18" t="n">
-        <v>2.704300403594971</v>
+        <v>-1.699732542037964</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.112385630607605</v>
+        <v>1.101084589958191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.6466008424758911</v>
+        <v>-0.7536550164222717</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0087048299610614</v>
+        <v>-0.4547891616821289</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.5677992701530457</v>
+        <v>0.0024434609804302</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.914909839630127</v>
+        <v>-0.0832303911447525</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.065807104110718</v>
+        <v>-0.0516181141138076</v>
       </c>
       <c r="C20" t="n">
-        <v>2.838385343551636</v>
+        <v>-0.2286163121461868</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.06688974797725671</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5899431109428406</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.3481931984424591</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.7376197576522827</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.138958215713501</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.1828014254570007</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.0334312915802</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.02701723575592</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1038470938801765</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.1331686228513717</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.704300403594971</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.112385630607605</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.6466008424758911</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.0087048299610614</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.5677992701530457</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.914909839630127</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.065807104110718</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.838385343551636</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>0.1142318025231361</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>-0.2412917762994766</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>0.7263187766075134</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.4198171496391296</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1876883506774902</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.732122004032135</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.0713185146450996</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.2884811162948608</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1009454801678657</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.0609338097274303</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.087353728711605</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0229074470698833</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.015118914656341</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0455094613134861</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.119576871395111</v>
       </c>
     </row>
   </sheetData>
